--- a/기획/거학 파라미터 테이블.xlsx
+++ b/기획/거학 파라미터 테이블.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinor\Documents\GitHub\23-1_team\기획\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452D020-BE01-40DB-A8D5-E6EB644C8F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+  <si>
+    <t>용도</t>
+  </si>
+  <si>
+    <t>Player_Hp</t>
+  </si>
+  <si>
+    <t>Player_Mp</t>
+  </si>
+  <si>
+    <t>Player_Vgr</t>
+  </si>
+  <si>
+    <t>Player_Atk</t>
+  </si>
+  <si>
+    <t>Player_Def</t>
+  </si>
+  <si>
+    <t>Player_CurExp</t>
+  </si>
+  <si>
+    <t>Player_NextExp</t>
+  </si>
+  <si>
+    <t>Player_Lv</t>
+  </si>
+  <si>
+    <t>명칭(영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭(한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 속도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 수치 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터가 스킬을 사용할 때 소모되는 자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치가 0이하로 내려갈 시 게임오버 판정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 적 캐릭터를 공격할 시, 가하는 데미지 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 피격 시, 감소될 생명력 수치 계산에 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위해 필요한 경험치 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위한 자원 소지량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 성장 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 수치 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 수치 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용공식(Player부분 생략)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp = 80 + ( Vgr * 20 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsighned int</t>
+  </si>
+  <si>
+    <t>unsighned int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Mnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp = 1초당 Mnt * 0.5 증가 &amp; 공격명중 시 10 + (Mnt * 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk = 100 + ( Str * 11.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def = 10 + ( Ind * 0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextExp = 100 + ( NextExp * 0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +249,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +684,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="70.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기획/거학 파라미터 테이블.xlsx
+++ b/기획/거학 파라미터 테이블.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinor\Documents\GitHub\23-1_team\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452D020-BE01-40DB-A8D5-E6EB644C8F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D1C90-C4FC-494F-980E-1D7F06C557CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="플레이어 파라미터" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터 파라미터" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>용도</t>
   </si>
@@ -202,6 +203,10 @@
   </si>
   <si>
     <t>NextExp = 100 + ( NextExp * 0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용공식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,4 +914,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E0623-10FB-4A34-BA18-E329324F5184}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="71.25" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/기획/거학 파라미터 테이블.xlsx
+++ b/기획/거학 파라미터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinor\Documents\GitHub\23-1_team\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D1C90-C4FC-494F-980E-1D7F06C557CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D60E15-74AD-4BA4-AB43-FBCE349B3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>용도</t>
   </si>
@@ -207,6 +207,41 @@
   </si>
   <si>
     <t>적용공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Hp</t>
+  </si>
+  <si>
+    <t>Mob_Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버 시 플레이어에게 지급되는 경험치 량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력이 0이되면 게임 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 입는 데미지 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_HpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력 최대치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +956,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -951,30 +986,56 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>

--- a/기획/거학 파라미터 테이블.xlsx
+++ b/기획/거학 파라미터 테이블.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinor\Documents\GitHub\23-1_team\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D60E15-74AD-4BA4-AB43-FBCE349B3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC82159D-8532-40E7-A661-CF69E9C7FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>용도</t>
   </si>
@@ -210,38 +210,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Mob_Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버 시 플레이어에게 지급되는 경험치 량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력이 0이되면 게임 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 입는 데미지 계산에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_HpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력 최대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mob_Hp</t>
-  </si>
-  <si>
-    <t>Mob_Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오버 시 플레이어에게 지급되는 경험치 량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 체력이 0이되면 게임 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 입는 데미지 계산에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_HpMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 체력 최대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Mob_HpMax - Mob_Hp) * 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +961,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,23 +995,23 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="3">
         <v>10000</v>
@@ -1018,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1031,13 +1036,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
